--- a/data/outputs/OR/60.xlsx
+++ b/data/outputs/OR/60.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ125"/>
+  <dimension ref="A1:BR125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -919,6 +924,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1126,6 +1132,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1341,6 +1348,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1427,7 +1435,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Wu, Zheng-Guang/0000-0003-4460-9785; </t>
+          <t>Wu, Zheng-Guang/0000-0003-4460-9785;</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1556,6 +1564,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1763,6 +1772,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1982,6 +1992,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2189,6 +2200,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2404,6 +2416,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2619,6 +2632,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2826,6 +2840,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3033,6 +3048,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3248,6 +3264,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3455,6 +3472,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3662,6 +3680,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3865,6 +3884,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>5035744</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4072,6 +4096,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4287,6 +4312,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4494,6 +4520,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4701,6 +4728,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4912,6 +4940,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5119,6 +5148,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5318,6 +5348,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5525,6 +5556,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5744,6 +5776,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5955,6 +5988,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6166,6 +6200,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6373,6 +6408,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6588,6 +6624,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6803,6 +6840,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7018,6 +7056,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7225,6 +7264,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7432,6 +7472,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7651,6 +7692,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7866,6 +7908,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8073,6 +8116,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8288,6 +8332,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8507,6 +8552,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8714,6 +8760,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8921,6 +8968,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9124,6 +9172,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9323,6 +9372,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9526,6 +9576,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9741,6 +9792,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9940,6 +9992,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10139,6 +10192,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10346,6 +10400,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10561,6 +10616,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10776,6 +10832,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10979,6 +11036,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11182,6 +11240,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11397,6 +11456,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11608,6 +11668,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11827,6 +11888,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12026,6 +12088,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12241,6 +12304,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12448,6 +12512,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12663,6 +12728,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12866,6 +12932,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13065,6 +13132,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13276,6 +13344,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13487,6 +13556,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13698,6 +13768,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13905,6 +13976,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14116,6 +14188,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14319,6 +14392,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14518,6 +14592,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14725,6 +14800,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14932,6 +15008,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15139,6 +15216,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15350,6 +15428,11 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr">
+        <is>
+          <t>4147212</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15561,6 +15644,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15768,6 +15852,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15975,6 +16060,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16174,6 +16260,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16381,6 +16468,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16580,6 +16668,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16791,6 +16880,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17002,6 +17092,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17209,6 +17300,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17408,6 +17500,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17627,6 +17720,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17838,6 +17932,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18049,6 +18144,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18264,6 +18360,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18471,6 +18568,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18682,6 +18780,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18889,6 +18988,11 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr">
+        <is>
+          <t>1725381</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19096,6 +19200,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19182,7 +19287,7 @@
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>Ogura, Masaki/0000-0002-3857-3942; </t>
+          <t>Ogura, Masaki/0000-0002-3857-3942;</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr"/>
@@ -19303,6 +19408,11 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr">
+        <is>
+          <t>2221754</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19510,6 +19620,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19717,6 +19828,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19932,6 +20044,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20131,6 +20244,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20342,6 +20456,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20553,6 +20668,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20764,6 +20880,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20979,6 +21096,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21182,6 +21300,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21385,6 +21504,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21592,6 +21712,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21799,6 +21920,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22014,6 +22136,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22221,6 +22344,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22428,6 +22552,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22643,6 +22768,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22858,6 +22984,7 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23069,6 +23196,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23268,6 +23396,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23471,6 +23600,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23670,6 +23800,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23877,6 +24008,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24080,6 +24212,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24287,6 +24420,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24502,6 +24636,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24701,6 +24836,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24920,6 +25056,11 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr">
+        <is>
+          <t>4246292</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25127,6 +25268,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25334,6 +25476,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25541,6 +25684,11 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr">
+        <is>
+          <t>2294410</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25740,6 +25888,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -25943,6 +26092,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26146,6 +26296,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26361,6 +26512,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -26568,6 +26720,11 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr">
+        <is>
+          <t>2441472</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
